--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.2.EESI_caldera_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.2.EESI_caldera_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19853FF-06E5-4753-B394-2488B102D6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -23,22 +24,28 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0" shapeId="0">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C48" authorId="0" shapeId="0">
+    <comment ref="C48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,12 +90,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="185">
   <si>
     <t>Medida</t>
   </si>
@@ -1948,20 +1955,34 @@
   </si>
   <si>
     <t>Producción anual INICIATIVA</t>
+  </si>
+  <si>
+    <t>Linea Base Emisiones GEI (tCO2e)</t>
+  </si>
+  <si>
+    <t>Iniciativa de Mitigación Emisiones GEI (tCO2e)</t>
+  </si>
+  <si>
+    <t>Total Emisiones de Efecto Invernadero antes de la Iniciativa</t>
+  </si>
+  <si>
+    <t>Total de Emisiones de la nueva iniciativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="9">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="0.000000000000"/>
     <numFmt numFmtId="170" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="41" x14ac:knownFonts="1">
     <font>
@@ -3077,12 +3098,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3376,7 +3397,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3580,6 +3601,15 @@
     <xf numFmtId="4" fontId="40" fillId="18" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="35" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="15" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="35" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -3688,15 +3718,24 @@
     <xf numFmtId="0" fontId="38" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="35" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="4" fontId="38" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="38" fillId="16" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="38" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="4"/>
+    <cellStyle name="Normal 10 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3729,7 +3768,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CuadroTexto 6"/>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3828,7 +3873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CuadroTexto 7"/>
+        <xdr:cNvPr id="8" name="CuadroTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3918,7 +3969,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvPr id="6" name="Rectángulo 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3983,7 +4040,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="4" name="Grupo 3"/>
+        <xdr:cNvPr id="4" name="Grupo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3996,7 +4059,13 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="Imagen 1"/>
+          <xdr:cNvPr id="2" name="Imagen 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4018,7 +4087,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Rectángulo redondeado 2"/>
+          <xdr:cNvPr id="3" name="Rectángulo redondeado 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4079,7 +4154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4647,7 +4728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G41"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -4674,24 +4755,24 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="202"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="204"/>
+      <c r="B5" s="205"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="205"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="209"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="210"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
@@ -4936,7 +5017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4964,14 +5045,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="208" t="s">
+      <c r="B3" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
@@ -5015,14 +5096,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="209" t="s">
+      <c r="B9" s="212" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="210"/>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="211"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="214"/>
     </row>
     <row r="10" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
@@ -5094,7 +5175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R62"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -5833,32 +5914,32 @@
       <c r="I32" s="94"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="215" t="s">
         <v>164</v>
       </c>
-      <c r="C33" s="212"/>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
-      <c r="G33" s="212"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="213"/>
-      <c r="C34" s="213"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
+      <c r="B34" s="216"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="216"/>
+      <c r="G34" s="216"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="221" t="s">
+      <c r="D36" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="222"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="223"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="225"/>
+      <c r="H36" s="226"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D37" s="41" t="s">
@@ -5896,37 +5977,37 @@
     </row>
     <row r="39" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="230"/>
-      <c r="C40" s="231"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="234"/>
       <c r="D40" s="91" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="224" t="s">
+      <c r="B41" s="227" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="225"/>
+      <c r="C41" s="228"/>
       <c r="D41" s="115">
         <f>G3*$D$38+G6*$E$38+G9*$F$38+G12*$G$38+G15*$H$38</f>
         <v>7997.2788862459374</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="226" t="s">
+      <c r="B42" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="227"/>
+      <c r="C42" s="230"/>
       <c r="D42" s="92">
         <f>G4*$D$38+G7*$E$38+G10*$F$38+G13*$G$38+G16*$H$38</f>
         <v>8194.1635171830039</v>
       </c>
     </row>
     <row r="43" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="228" t="s">
+      <c r="B43" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="229"/>
+      <c r="C43" s="232"/>
       <c r="D43" s="93">
         <f>G5*$D$38+G8*$E$38+G11*$F$38+G14*$G$38+G17*$H$38</f>
         <v>8444.2043794558067</v>
@@ -5965,21 +6046,21 @@
       <c r="H48" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="J48" s="214" t="s">
+      <c r="J48" s="217" t="s">
         <v>54</v>
       </c>
-      <c r="K48" s="216" t="s">
+      <c r="K48" s="219" t="s">
         <v>81</v>
       </c>
-      <c r="L48" s="217"/>
-      <c r="M48" s="217"/>
-      <c r="N48" s="217"/>
-      <c r="O48" s="218" t="s">
+      <c r="L48" s="220"/>
+      <c r="M48" s="220"/>
+      <c r="N48" s="220"/>
+      <c r="O48" s="221" t="s">
         <v>82</v>
       </c>
-      <c r="P48" s="219"/>
-      <c r="Q48" s="219"/>
-      <c r="R48" s="220"/>
+      <c r="P48" s="222"/>
+      <c r="Q48" s="222"/>
+      <c r="R48" s="223"/>
     </row>
     <row r="49" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="111" t="s">
@@ -6004,7 +6085,7 @@
         <f>F49*G49/E49</f>
         <v>2085714.285714285</v>
       </c>
-      <c r="J49" s="215"/>
+      <c r="J49" s="218"/>
       <c r="K49" s="82" t="s">
         <v>87</v>
       </c>
@@ -6238,24 +6319,24 @@
       <c r="H60" s="52"/>
     </row>
     <row r="61" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="212" t="s">
+      <c r="B61" s="215" t="s">
         <v>164</v>
       </c>
-      <c r="C61" s="212"/>
-      <c r="D61" s="212"/>
-      <c r="E61" s="212"/>
-      <c r="F61" s="212"/>
-      <c r="G61" s="212"/>
-      <c r="H61" s="212"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="215"/>
+      <c r="E61" s="215"/>
+      <c r="F61" s="215"/>
+      <c r="G61" s="215"/>
+      <c r="H61" s="215"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="213"/>
-      <c r="C62" s="213"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="213"/>
-      <c r="F62" s="213"/>
-      <c r="G62" s="213"/>
-      <c r="H62" s="213"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="216"/>
+      <c r="E62" s="216"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="216"/>
+      <c r="H62" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6278,7 +6359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6428,11 +6509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:S42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,7 +6524,8 @@
     <col min="4" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="11.42578125" style="142"/>
+    <col min="7" max="7" width="22.85546875" style="142" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="142"/>
     <col min="10" max="10" width="11.42578125" style="1"/>
     <col min="11" max="11" width="3.5703125" style="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" style="1"/>
@@ -6819,11 +6901,11 @@
       <c r="Q24" s="99"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="232" t="s">
+      <c r="O25" s="235" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="232"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
@@ -6832,9 +6914,9 @@
       <c r="F26" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="O26" s="233"/>
-      <c r="P26" s="233"/>
-      <c r="Q26" s="233"/>
+      <c r="O26" s="236"/>
+      <c r="P26" s="236"/>
+      <c r="Q26" s="236"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
@@ -6861,9 +6943,9 @@
       <c r="J27" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="O27" s="233"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="233"/>
+      <c r="O27" s="236"/>
+      <c r="P27" s="236"/>
+      <c r="Q27" s="236"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="102" t="s">
@@ -6938,7 +7020,7 @@
       <c r="F30" s="104" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="177">
+      <c r="G30" s="200">
         <f>'[2]FE CE'!$F$39</f>
         <v>56126.26334612057</v>
       </c>
@@ -7131,15 +7213,15 @@
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="B42" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B42" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -7148,11 +7230,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7162,11 +7244,11 @@
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="8" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" s="180" t="s">
         <v>173</v>
       </c>
@@ -7176,9 +7258,11 @@
       <c r="F1" s="180"/>
       <c r="G1" s="181"/>
       <c r="H1" s="181"/>
-      <c r="I1" s="180"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="180"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="182" t="s">
         <v>174</v>
       </c>
@@ -7188,9 +7272,11 @@
       <c r="F2" s="180"/>
       <c r="G2" s="181"/>
       <c r="H2" s="181"/>
-      <c r="I2" s="180"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="180"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="180"/>
       <c r="C3" s="180"/>
       <c r="D3" s="180"/>
@@ -7198,9 +7284,11 @@
       <c r="F3" s="180"/>
       <c r="G3" s="181"/>
       <c r="H3" s="181"/>
-      <c r="I3" s="180"/>
-    </row>
-    <row r="4" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="180"/>
+    </row>
+    <row r="4" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="183" t="s">
         <v>170</v>
       </c>
@@ -7210,11 +7298,17 @@
       <c r="F4" s="184"/>
       <c r="G4" s="186"/>
       <c r="H4" s="186"/>
-      <c r="I4" s="234" t="s">
+      <c r="I4" s="238" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="240" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="237" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="187" t="s">
         <v>55</v>
       </c>
@@ -7236,9 +7330,11 @@
       <c r="H5" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="234"/>
-    </row>
-    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="I5" s="239"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="237"/>
+    </row>
+    <row r="6" spans="2:11" ht="72" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>57</v>
       </c>
@@ -7260,86 +7356,112 @@
       <c r="H6" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="198" t="s">
+      <c r="I6" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K6" s="198" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="190">
         <v>2018</v>
       </c>
       <c r="C7" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="235">
+      <c r="D7" s="199">
         <v>54032</v>
       </c>
-      <c r="E7" s="235">
+      <c r="E7" s="199">
         <v>55000000</v>
       </c>
       <c r="F7" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="235">
+      <c r="G7" s="199">
         <v>208054</v>
       </c>
-      <c r="H7" s="235">
+      <c r="H7" s="199">
         <v>57050000</v>
       </c>
-      <c r="I7" s="192">
-        <f>(((D7*Factores!C28*(Factores!G28+Factores!H28*Factores!C39+Factores!I28*Factores!C40))/E7*1000)-((G7*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/H7*1000))*H7/1000000</f>
+      <c r="I7" s="201">
+        <f>((D7*Factores!C28*(Factores!G28+Factores!H28*Factores!C39+Factores!I28*Factores!C40))/E7*1000)*H7/1000000</f>
+        <v>655.89352114282838</v>
+      </c>
+      <c r="J7" s="201">
+        <f>((G7*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/H7*1000)*H7/1000000</f>
+        <v>421.2041374916646</v>
+      </c>
+      <c r="K7" s="192">
+        <f>I7-J7</f>
         <v>234.68938365116378</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="190">
         <v>2018</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="235">
+      <c r="D8" s="199">
         <v>183345</v>
       </c>
-      <c r="E8" s="235">
+      <c r="E8" s="199">
         <v>113268457</v>
       </c>
       <c r="F8" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="235">
+      <c r="G8" s="199">
         <v>768254</v>
       </c>
-      <c r="H8" s="235">
+      <c r="H8" s="199">
         <v>132350000</v>
       </c>
-      <c r="I8" s="192">
-        <f>(((D8*Factores!C29*(Factores!G29+Factores!H29*Factores!C39+Factores!I29*Factores!C40))/E8*1000)-((G8*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/H8*1000))*H8/1000000</f>
-        <v>587.04975343165029</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="201">
+        <f>((D8*Factores!C29*(Factores!G29+Factores!H29*Factores!C39+Factores!I29*Factores!C40))/E8*1000)*H8/1000000</f>
+        <v>2142.3755988589014</v>
+      </c>
+      <c r="J8" s="201">
+        <f>((G8*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/H8*1000)*H8/1000000</f>
+        <v>1555.3258454272509</v>
+      </c>
+      <c r="K8" s="192">
+        <f>I8-J8</f>
+        <v>587.04975343165052</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="193"/>
       <c r="D9" s="193"/>
       <c r="E9" s="194"/>
       <c r="F9" s="195"/>
       <c r="G9" s="196"/>
       <c r="H9" s="196"/>
-      <c r="I9" s="197">
-        <f>SUM(I7:I8)</f>
-        <v>821.73913708281407</v>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="197">
+        <f>SUM(K7:K8)</f>
+        <v>821.7391370828143</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Desplegable!$B$7:$B$12</xm:f>
           </x14:formula1>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.2.EESI_caldera_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.2.EESI_caldera_exp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19853FF-06E5-4753-B394-2488B102D6C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31A8E7-53BC-40EA-BAC1-1E5ACDC47E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="190">
   <si>
     <t>Medida</t>
   </si>
@@ -1967,6 +1967,21 @@
   </si>
   <si>
     <t>Total de Emisiones de la nueva iniciativa</t>
+  </si>
+  <si>
+    <t>Unidad BAU</t>
+  </si>
+  <si>
+    <t>Unidad INI</t>
+  </si>
+  <si>
+    <t>Unidad medida BAU</t>
+  </si>
+  <si>
+    <t>Unidad medida INI</t>
+  </si>
+  <si>
+    <t>m3</t>
   </si>
 </sst>
 </file>
@@ -3103,7 +3118,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3728,6 +3743,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="171" fontId="38" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7231,24 +7249,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:K9"/>
+  <dimension ref="B1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="180" t="s">
         <v>173</v>
       </c>
@@ -7256,13 +7274,15 @@
       <c r="D1" s="180"/>
       <c r="E1" s="180"/>
       <c r="F1" s="180"/>
-      <c r="G1" s="181"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="181"/>
       <c r="I1" s="181"/>
       <c r="J1" s="181"/>
-      <c r="K1" s="180"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="180"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="182" t="s">
         <v>174</v>
       </c>
@@ -7270,45 +7290,51 @@
       <c r="D2" s="180"/>
       <c r="E2" s="180"/>
       <c r="F2" s="180"/>
-      <c r="G2" s="181"/>
+      <c r="G2" s="180"/>
       <c r="H2" s="181"/>
       <c r="I2" s="181"/>
       <c r="J2" s="181"/>
-      <c r="K2" s="180"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="180"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="180"/>
       <c r="C3" s="180"/>
       <c r="D3" s="180"/>
       <c r="E3" s="180"/>
       <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
+      <c r="G3" s="180"/>
       <c r="H3" s="181"/>
       <c r="I3" s="181"/>
       <c r="J3" s="181"/>
-      <c r="K3" s="180"/>
-    </row>
-    <row r="4" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="180"/>
+    </row>
+    <row r="4" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="183" t="s">
         <v>170</v>
       </c>
       <c r="C4" s="184"/>
       <c r="D4" s="184"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="186"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="186"/>
-      <c r="I4" s="238" t="s">
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="238" t="s">
         <v>181</v>
       </c>
-      <c r="J4" s="240" t="s">
+      <c r="L4" s="240" t="s">
         <v>182</v>
       </c>
-      <c r="K4" s="237" t="s">
+      <c r="M4" s="237" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="187" t="s">
         <v>55</v>
       </c>
@@ -7318,23 +7344,29 @@
       <c r="D5" s="187" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="242" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="187" t="s">
+      <c r="G5" s="187" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="189" t="s">
+      <c r="H5" s="189" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="189" t="s">
+      <c r="I5" s="189" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="189" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="239"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="237"/>
-    </row>
-    <row r="6" spans="2:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="K5" s="239"/>
+      <c r="L5" s="241"/>
+      <c r="M5" s="237"/>
+    </row>
+    <row r="6" spans="2:13" ht="72" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>57</v>
       </c>
@@ -7345,28 +7377,34 @@
         <v>153</v>
       </c>
       <c r="E6" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="G6" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="K6" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="L6" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="K6" s="198" t="s">
+      <c r="M6" s="198" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="190">
         <v>2018</v>
       </c>
@@ -7376,32 +7414,38 @@
       <c r="D7" s="199">
         <v>54032</v>
       </c>
-      <c r="E7" s="199">
+      <c r="E7" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="199">
         <v>55000000</v>
       </c>
-      <c r="F7" s="191" t="s">
+      <c r="G7" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="199">
+      <c r="H7" s="199">
         <v>208054</v>
       </c>
-      <c r="H7" s="199">
+      <c r="I7" s="199" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" s="199">
         <v>57050000</v>
       </c>
-      <c r="I7" s="201">
-        <f>((D7*Factores!C28*(Factores!G28+Factores!H28*Factores!C39+Factores!I28*Factores!C40))/E7*1000)*H7/1000000</f>
+      <c r="K7" s="201">
+        <f>((D7*Factores!C28*(Factores!G28+Factores!H28*Factores!C39+Factores!I28*Factores!C40))/F7*1000)*J7/1000000</f>
         <v>655.89352114282838</v>
       </c>
-      <c r="J7" s="201">
-        <f>((G7*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/H7*1000)*H7/1000000</f>
+      <c r="L7" s="201">
+        <f>((H7*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/J7*1000)*J7/1000000</f>
         <v>421.2041374916646</v>
       </c>
-      <c r="K7" s="192">
-        <f>I7-J7</f>
+      <c r="M7" s="192">
+        <f>K7-L7</f>
         <v>234.68938365116378</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="190">
         <v>2018</v>
       </c>
@@ -7411,50 +7455,58 @@
       <c r="D8" s="199">
         <v>183345</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="199">
         <v>113268457</v>
       </c>
-      <c r="F8" s="191" t="s">
+      <c r="G8" s="191" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="199">
+      <c r="H8" s="199">
         <v>768254</v>
       </c>
-      <c r="H8" s="199">
+      <c r="I8" s="199" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="199">
         <v>132350000</v>
       </c>
-      <c r="I8" s="201">
-        <f>((D8*Factores!C29*(Factores!G29+Factores!H29*Factores!C39+Factores!I29*Factores!C40))/E8*1000)*H8/1000000</f>
+      <c r="K8" s="201">
+        <f>((D8*Factores!C29*(Factores!G29+Factores!H29*Factores!C39+Factores!I29*Factores!C40))/F8*1000)*J8/1000000</f>
         <v>2142.3755988589014</v>
       </c>
-      <c r="J8" s="201">
-        <f>((G8*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/H8*1000)*H8/1000000</f>
+      <c r="L8" s="201">
+        <f>((H8*Factores!$C$30*(Factores!$G$30+Factores!$H$30*Factores!$C$39+Factores!$I$30*Factores!$C$40))/J8*1000)*J8/1000000</f>
         <v>1555.3258454272509</v>
       </c>
-      <c r="K8" s="192">
-        <f>I8-J8</f>
+      <c r="M8" s="192">
+        <f>K8-L8</f>
         <v>587.04975343165052</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="193"/>
       <c r="D9" s="193"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
-      <c r="G9" s="196"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="195"/>
       <c r="H9" s="196"/>
       <c r="I9" s="196"/>
       <c r="J9" s="196"/>
-      <c r="K9" s="197">
-        <f>SUM(K7:K8)</f>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="197">
+        <f>SUM(M7:M8)</f>
         <v>821.7391370828143</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7465,7 +7517,7 @@
           <x14:formula1>
             <xm:f>Desplegable!$B$7:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>C7:C8 F7:F8</xm:sqref>
+          <xm:sqref>C7:C8 G7:G8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
